--- a/ownership-rate/data/ownership-rate-by-re.xlsx
+++ b/ownership-rate/data/ownership-rate-by-re.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Region</t>
   </si>
   <si>
-    <t xml:space="preserve">American Indian or Alaskan Native alone</t>
+    <t xml:space="preserve">American Indian or Alaskan Native</t>
   </si>
   <si>
     <t xml:space="preserve">detail</t>
@@ -91,55 +91,55 @@
     <t xml:space="preserve">all households</t>
   </si>
   <si>
-    <t xml:space="preserve">Asian alone</t>
+    <t xml:space="preserve">Asian</t>
   </si>
   <si>
-    <t xml:space="preserve">Black or African American alone</t>
+    <t xml:space="preserve">Black or African American</t>
   </si>
   <si>
     <t xml:space="preserve">Hispanic or Latino</t>
   </si>
   <si>
-    <t xml:space="preserve">Native Hawaiian and Other Pacific Islander alone</t>
+    <t xml:space="preserve">Native Hawaiian or Pacific Islander</t>
   </si>
   <si>
-    <t xml:space="preserve">Some Other Race alone</t>
+    <t xml:space="preserve">Some Other Race</t>
   </si>
   <si>
     <t xml:space="preserve">Two or More Races</t>
   </si>
   <si>
-    <t xml:space="preserve">White alone</t>
+    <t xml:space="preserve">White</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. Asian</t>
+    <t xml:space="preserve">MNAW</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. Asian, white</t>
+    <t xml:space="preserve">Multirace incl. Asian</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. white</t>
+    <t xml:space="preserve">Multirace incl. Asian, white</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial not Asian or white</t>
+    <t xml:space="preserve">Multirace incl. white</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Multirace PSRC</t>
+    <t xml:space="preserve">Multirace PSRC</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Single race PSRC</t>
+    <t xml:space="preserve">Single race PSRC</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Multirace Harvard</t>
+    <t xml:space="preserve">Multirace Harvard</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Single race Harvard</t>
+    <t xml:space="preserve">Single race Harvard</t>
   </si>
   <si>
-    <t xml:space="preserve">Total People of color</t>
+    <t xml:space="preserve">People of color</t>
   </si>
   <si>
     <t xml:space="preserve">King</t>
@@ -166,13 +166,13 @@
     <t xml:space="preserve">dichot</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial not white</t>
+    <t xml:space="preserve">MNW</t>
   </si>
   <si>
     <t xml:space="preserve">single</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiple Races</t>
+    <t xml:space="preserve">Multirace</t>
   </si>
 </sst>
 </file>
@@ -1139,31 +1139,31 @@
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
-        <v>13972</v>
+        <v>10477</v>
       </c>
       <c r="G11" t="n">
-        <v>15596</v>
+        <v>11683</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>0.604351399281976</v>
+        <v>0.446666098226467</v>
       </c>
       <c r="J11" t="n">
-        <v>0.609171158503242</v>
+        <v>0.420403022670025</v>
       </c>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>1068.3468932257</v>
+        <v>1064.65703893437</v>
       </c>
       <c r="M11" t="n">
-        <v>1142.30966385707</v>
+        <v>1094.40101879921</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.0315685219912864</v>
+        <v>0.0346965442905105</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0285285953578565</v>
+        <v>0.0323866693668837</v>
       </c>
       <c r="Q11"/>
       <c r="R11" t="s">
@@ -1191,31 +1191,31 @@
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
-        <v>44421</v>
+        <v>13972</v>
       </c>
       <c r="G12" t="n">
-        <v>46176</v>
+        <v>15596</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="n">
-        <v>0.722398399765819</v>
+        <v>0.604351399281976</v>
       </c>
       <c r="J12" t="n">
-        <v>0.726803393512033</v>
+        <v>0.609171158503242</v>
       </c>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>1786.35839856291</v>
+        <v>1068.3468932257</v>
       </c>
       <c r="M12" t="n">
-        <v>1803.61355079428</v>
+        <v>1142.30966385707</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>0.0188298659302052</v>
+        <v>0.0315685219912864</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0175137776059748</v>
+        <v>0.0285285953578565</v>
       </c>
       <c r="Q12"/>
       <c r="R12" t="s">
@@ -1243,31 +1243,31 @@
       </c>
       <c r="E13"/>
       <c r="F13" t="n">
-        <v>103745</v>
+        <v>44421</v>
       </c>
       <c r="G13" t="n">
-        <v>114796</v>
+        <v>46176</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="n">
-        <v>0.635034798523588</v>
+        <v>0.722398399765819</v>
       </c>
       <c r="J13" t="n">
-        <v>0.626927130834639</v>
+        <v>0.726803393512033</v>
       </c>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>3185.33156944316</v>
+        <v>1786.35839856291</v>
       </c>
       <c r="M13" t="n">
-        <v>3339.30291863362</v>
+        <v>1803.61355079428</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>0.0127117083843686</v>
+        <v>0.0188298659302052</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0123166870756028</v>
+        <v>0.0175137776059748</v>
       </c>
       <c r="Q13"/>
       <c r="R13" t="s">
@@ -1295,31 +1295,31 @@
       </c>
       <c r="E14"/>
       <c r="F14" t="n">
-        <v>10477</v>
+        <v>103745</v>
       </c>
       <c r="G14" t="n">
-        <v>11683</v>
+        <v>114796</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="n">
-        <v>0.446666098226467</v>
+        <v>0.635034798523588</v>
       </c>
       <c r="J14" t="n">
-        <v>0.420403022670025</v>
+        <v>0.626927130834639</v>
       </c>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>1064.65703893437</v>
+        <v>3185.33156944316</v>
       </c>
       <c r="M14" t="n">
-        <v>1094.40101879921</v>
+        <v>3339.30291863362</v>
       </c>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>0.0346965442905105</v>
+        <v>0.0127117083843686</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0323866693668837</v>
+        <v>0.0123166870756028</v>
       </c>
       <c r="Q14"/>
       <c r="R14" t="s">
@@ -2205,31 +2205,31 @@
       </c>
       <c r="E29"/>
       <c r="F29" t="n">
-        <v>7666</v>
+        <v>4656</v>
       </c>
       <c r="G29" t="n">
-        <v>8749</v>
+        <v>5120</v>
       </c>
       <c r="H29"/>
       <c r="I29" t="n">
-        <v>0.566467154363408</v>
+        <v>0.402003108271456</v>
       </c>
       <c r="J29" t="n">
-        <v>0.581097236981934</v>
+        <v>0.37347727770078</v>
       </c>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>858.749794613513</v>
+        <v>632.787583347485</v>
       </c>
       <c r="M29" t="n">
-        <v>928.327442655607</v>
+        <v>670.335077909735</v>
       </c>
       <c r="N29"/>
       <c r="O29" t="n">
-        <v>0.0438673202832475</v>
+        <v>0.0543405419322603</v>
       </c>
       <c r="P29" t="n">
-        <v>0.041504622251493</v>
+        <v>0.051021618622519</v>
       </c>
       <c r="Q29"/>
       <c r="R29" t="s">
@@ -2257,31 +2257,31 @@
       </c>
       <c r="E30"/>
       <c r="F30" t="n">
-        <v>26737</v>
+        <v>7666</v>
       </c>
       <c r="G30" t="n">
-        <v>27538</v>
+        <v>8749</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="n">
-        <v>0.68079851297329</v>
+        <v>0.566467154363408</v>
       </c>
       <c r="J30" t="n">
-        <v>0.684275916906868</v>
+        <v>0.581097236981934</v>
       </c>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>1318.94295575709</v>
+        <v>858.749794613513</v>
       </c>
       <c r="M30" t="n">
-        <v>1357.66953530029</v>
+        <v>928.327442655607</v>
       </c>
       <c r="N30"/>
       <c r="O30" t="n">
-        <v>0.0246179144730839</v>
+        <v>0.0438673202832475</v>
       </c>
       <c r="P30" t="n">
-        <v>0.023457571977104</v>
+        <v>0.041504622251493</v>
       </c>
       <c r="Q30"/>
       <c r="R30" t="s">
@@ -2309,31 +2309,31 @@
       </c>
       <c r="E31"/>
       <c r="F31" t="n">
-        <v>45254</v>
+        <v>26737</v>
       </c>
       <c r="G31" t="n">
-        <v>49467</v>
+        <v>27538</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="n">
-        <v>0.586184116786052</v>
+        <v>0.68079851297329</v>
       </c>
       <c r="J31" t="n">
-        <v>0.584474508182194</v>
+        <v>0.684275916906868</v>
       </c>
       <c r="K31"/>
       <c r="L31" t="n">
-        <v>1994.28425512827</v>
+        <v>1318.94295575709</v>
       </c>
       <c r="M31" t="n">
-        <v>2100.50126652426</v>
+        <v>1357.66953530029</v>
       </c>
       <c r="N31"/>
       <c r="O31" t="n">
-        <v>0.0188157743667248</v>
+        <v>0.0246179144730839</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0176542334654063</v>
+        <v>0.023457571977104</v>
       </c>
       <c r="Q31"/>
       <c r="R31" t="s">
@@ -2361,31 +2361,31 @@
       </c>
       <c r="E32"/>
       <c r="F32" t="n">
-        <v>4656</v>
+        <v>45254</v>
       </c>
       <c r="G32" t="n">
-        <v>5120</v>
+        <v>49467</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="n">
-        <v>0.402003108271456</v>
+        <v>0.586184116786052</v>
       </c>
       <c r="J32" t="n">
-        <v>0.37347727770078</v>
+        <v>0.584474508182194</v>
       </c>
       <c r="K32"/>
       <c r="L32" t="n">
-        <v>632.787583347485</v>
+        <v>1994.28425512827</v>
       </c>
       <c r="M32" t="n">
-        <v>670.335077909735</v>
+        <v>2100.50126652426</v>
       </c>
       <c r="N32"/>
       <c r="O32" t="n">
-        <v>0.0543405419322603</v>
+        <v>0.0188157743667248</v>
       </c>
       <c r="P32" t="n">
-        <v>0.051021618622519</v>
+        <v>0.0176542334654063</v>
       </c>
       <c r="Q32"/>
       <c r="R32" t="s">
@@ -3271,31 +3271,31 @@
       </c>
       <c r="E47"/>
       <c r="F47" t="n">
-        <v>504</v>
+        <v>648</v>
       </c>
       <c r="G47" t="n">
-        <v>618</v>
+        <v>657</v>
       </c>
       <c r="H47"/>
       <c r="I47" t="n">
-        <v>0.609431680773882</v>
+        <v>0.374133949191686</v>
       </c>
       <c r="J47" t="n">
-        <v>0.647120418848168</v>
+        <v>0.352278820375335</v>
       </c>
       <c r="K47"/>
       <c r="L47" t="n">
-        <v>161.698563251193</v>
+        <v>197.144516963445</v>
       </c>
       <c r="M47" t="n">
-        <v>181.973733633456</v>
+        <v>196.631178863501</v>
       </c>
       <c r="N47"/>
       <c r="O47" t="n">
-        <v>0.141283767149141</v>
+        <v>0.102877942826686</v>
       </c>
       <c r="P47" t="n">
-        <v>0.129834215880133</v>
+        <v>0.099943556865988</v>
       </c>
       <c r="Q47"/>
       <c r="R47" t="s">
@@ -3323,38 +3323,38 @@
       </c>
       <c r="E48"/>
       <c r="F48" t="n">
-        <v>2968</v>
+        <v>504</v>
       </c>
       <c r="G48" t="n">
-        <v>3027</v>
+        <v>618</v>
       </c>
       <c r="H48"/>
       <c r="I48" t="n">
-        <v>0.834880450070324</v>
+        <v>0.609431680773882</v>
       </c>
       <c r="J48" t="n">
-        <v>0.837576092971776</v>
+        <v>0.647120418848168</v>
       </c>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>523.929271968078</v>
+        <v>161.698563251193</v>
       </c>
       <c r="M48" t="n">
-        <v>525.725503417658</v>
+        <v>181.973733633456</v>
       </c>
       <c r="N48"/>
       <c r="O48" t="n">
-        <v>0.0600551876947096</v>
+        <v>0.141283767149141</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0591642615070534</v>
+        <v>0.129834215880133</v>
       </c>
       <c r="Q48"/>
       <c r="R48" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="S48" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="T48" t="s">
         <v>24</v>
@@ -3375,31 +3375,31 @@
       </c>
       <c r="E49"/>
       <c r="F49" t="n">
-        <v>8515</v>
+        <v>2968</v>
       </c>
       <c r="G49" t="n">
-        <v>9595</v>
+        <v>3027</v>
       </c>
       <c r="H49"/>
       <c r="I49" t="n">
-        <v>0.681363527246539</v>
+        <v>0.834880450070324</v>
       </c>
       <c r="J49" t="n">
-        <v>0.668222021032105</v>
+        <v>0.837576092971776</v>
       </c>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>735.432201509765</v>
+        <v>523.929271968078</v>
       </c>
       <c r="M49" t="n">
-        <v>776.316353767103</v>
+        <v>525.725503417658</v>
       </c>
       <c r="N49"/>
       <c r="O49" t="n">
-        <v>0.040151419122855</v>
+        <v>0.0600551876947096</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0377222647256608</v>
+        <v>0.0591642615070534</v>
       </c>
       <c r="Q49"/>
       <c r="R49" t="s">
@@ -3427,38 +3427,38 @@
       </c>
       <c r="E50"/>
       <c r="F50" t="n">
-        <v>648</v>
+        <v>8515</v>
       </c>
       <c r="G50" t="n">
-        <v>657</v>
+        <v>9595</v>
       </c>
       <c r="H50"/>
       <c r="I50" t="n">
-        <v>0.374133949191686</v>
+        <v>0.681363527246539</v>
       </c>
       <c r="J50" t="n">
-        <v>0.352278820375335</v>
+        <v>0.668222021032105</v>
       </c>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>197.144516963445</v>
+        <v>735.432201509765</v>
       </c>
       <c r="M50" t="n">
-        <v>196.631178863501</v>
+        <v>776.316353767103</v>
       </c>
       <c r="N50"/>
       <c r="O50" t="n">
-        <v>0.102877942826686</v>
+        <v>0.040151419122855</v>
       </c>
       <c r="P50" t="n">
-        <v>0.099943556865988</v>
+        <v>0.0377222647256608</v>
       </c>
       <c r="Q50"/>
       <c r="R50" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="S50" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="T50" t="s">
         <v>24</v>
@@ -4337,31 +4337,31 @@
       </c>
       <c r="E65"/>
       <c r="F65" t="n">
-        <v>3370</v>
+        <v>3816</v>
       </c>
       <c r="G65" t="n">
-        <v>3615</v>
+        <v>4334</v>
       </c>
       <c r="H65"/>
       <c r="I65" t="n">
-        <v>0.64509954058193</v>
+        <v>0.531994981179423</v>
       </c>
       <c r="J65" t="n">
-        <v>0.622096024780589</v>
+        <v>0.496505899873983</v>
       </c>
       <c r="K65"/>
       <c r="L65" t="n">
-        <v>486.088175460482</v>
+        <v>730.175643145196</v>
       </c>
       <c r="M65" t="n">
-        <v>497.215230262509</v>
+        <v>733.935604669272</v>
       </c>
       <c r="N65"/>
       <c r="O65" t="n">
-        <v>0.0712422612573767</v>
+        <v>0.07019852353216</v>
       </c>
       <c r="P65" t="n">
-        <v>0.0654447160060862</v>
+        <v>0.0597673609065604</v>
       </c>
       <c r="Q65"/>
       <c r="R65" t="s">
@@ -4389,31 +4389,31 @@
       </c>
       <c r="E66"/>
       <c r="F66" t="n">
-        <v>7363</v>
+        <v>3370</v>
       </c>
       <c r="G66" t="n">
-        <v>7728</v>
+        <v>3615</v>
       </c>
       <c r="H66"/>
       <c r="I66" t="n">
-        <v>0.758759274525969</v>
+        <v>0.64509954058193</v>
       </c>
       <c r="J66" t="n">
-        <v>0.764997030291031</v>
+        <v>0.622096024780589</v>
       </c>
       <c r="K66"/>
       <c r="L66" t="n">
-        <v>722.108346442901</v>
+        <v>486.088175460482</v>
       </c>
       <c r="M66" t="n">
-        <v>770.140442510326</v>
+        <v>497.215230262509</v>
       </c>
       <c r="N66"/>
       <c r="O66" t="n">
-        <v>0.0524766273781432</v>
+        <v>0.0712422612573767</v>
       </c>
       <c r="P66" t="n">
-        <v>0.0512363326372591</v>
+        <v>0.0654447160060862</v>
       </c>
       <c r="Q66"/>
       <c r="R66" t="s">
@@ -4441,31 +4441,31 @@
       </c>
       <c r="E67"/>
       <c r="F67" t="n">
-        <v>28809</v>
+        <v>7363</v>
       </c>
       <c r="G67" t="n">
-        <v>32197</v>
+        <v>7728</v>
       </c>
       <c r="H67"/>
       <c r="I67" t="n">
-        <v>0.669883272101567</v>
+        <v>0.758759274525969</v>
       </c>
       <c r="J67" t="n">
-        <v>0.658371503353509</v>
+        <v>0.764997030291031</v>
       </c>
       <c r="K67"/>
       <c r="L67" t="n">
-        <v>1289.23368504948</v>
+        <v>722.108346442901</v>
       </c>
       <c r="M67" t="n">
-        <v>1393.86121937946</v>
+        <v>770.140442510326</v>
       </c>
       <c r="N67"/>
       <c r="O67" t="n">
-        <v>0.0219340958081491</v>
+        <v>0.0524766273781432</v>
       </c>
       <c r="P67" t="n">
-        <v>0.0215379225275967</v>
+        <v>0.0512363326372591</v>
       </c>
       <c r="Q67"/>
       <c r="R67" t="s">
@@ -4493,31 +4493,31 @@
       </c>
       <c r="E68"/>
       <c r="F68" t="n">
-        <v>3816</v>
+        <v>28809</v>
       </c>
       <c r="G68" t="n">
-        <v>4334</v>
+        <v>32197</v>
       </c>
       <c r="H68"/>
       <c r="I68" t="n">
-        <v>0.531994981179423</v>
+        <v>0.669883272101567</v>
       </c>
       <c r="J68" t="n">
-        <v>0.496505899873983</v>
+        <v>0.658371503353509</v>
       </c>
       <c r="K68"/>
       <c r="L68" t="n">
-        <v>730.175643145196</v>
+        <v>1289.23368504948</v>
       </c>
       <c r="M68" t="n">
-        <v>733.935604669272</v>
+        <v>1393.86121937946</v>
       </c>
       <c r="N68"/>
       <c r="O68" t="n">
-        <v>0.07019852353216</v>
+        <v>0.0219340958081491</v>
       </c>
       <c r="P68" t="n">
-        <v>0.0597673609065604</v>
+        <v>0.0215379225275967</v>
       </c>
       <c r="Q68"/>
       <c r="R68" t="s">
@@ -5403,31 +5403,31 @@
       </c>
       <c r="E83"/>
       <c r="F83" t="n">
-        <v>2432</v>
+        <v>1357</v>
       </c>
       <c r="G83" t="n">
-        <v>2614</v>
+        <v>1572</v>
       </c>
       <c r="H83"/>
       <c r="I83" t="n">
-        <v>0.687977369165488</v>
+        <v>0.457056247894914</v>
       </c>
       <c r="J83" t="n">
-        <v>0.691534391534392</v>
+        <v>0.450817321479782</v>
       </c>
       <c r="K83"/>
       <c r="L83" t="n">
-        <v>391.677747151597</v>
+        <v>311.283815516483</v>
       </c>
       <c r="M83" t="n">
-        <v>402.444635703161</v>
+        <v>352.713472027934</v>
       </c>
       <c r="N83"/>
       <c r="O83" t="n">
-        <v>0.0767110124360402</v>
+        <v>0.0953887538322556</v>
       </c>
       <c r="P83" t="n">
-        <v>0.0743627692865157</v>
+        <v>0.0883245661055159</v>
       </c>
       <c r="Q83"/>
       <c r="R83" t="s">
@@ -5455,31 +5455,31 @@
       </c>
       <c r="E84"/>
       <c r="F84" t="n">
-        <v>7353</v>
+        <v>2432</v>
       </c>
       <c r="G84" t="n">
-        <v>7883</v>
+        <v>2614</v>
       </c>
       <c r="H84"/>
       <c r="I84" t="n">
-        <v>0.82073892175466</v>
+        <v>0.687977369165488</v>
       </c>
       <c r="J84" t="n">
-        <v>0.823461819701243</v>
+        <v>0.691534391534392</v>
       </c>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>750.004552519516</v>
+        <v>391.677747151597</v>
       </c>
       <c r="M84" t="n">
-        <v>792.229164965858</v>
+        <v>402.444635703161</v>
       </c>
       <c r="N84"/>
       <c r="O84" t="n">
-        <v>0.038345665678746</v>
+        <v>0.0767110124360402</v>
       </c>
       <c r="P84" t="n">
-        <v>0.03738176549344</v>
+        <v>0.0743627692865157</v>
       </c>
       <c r="Q84"/>
       <c r="R84" t="s">
@@ -5507,31 +5507,31 @@
       </c>
       <c r="E85"/>
       <c r="F85" t="n">
-        <v>21167</v>
+        <v>7353</v>
       </c>
       <c r="G85" t="n">
-        <v>23537</v>
+        <v>7883</v>
       </c>
       <c r="H85"/>
       <c r="I85" t="n">
-        <v>0.690265775313876</v>
+        <v>0.82073892175466</v>
       </c>
       <c r="J85" t="n">
-        <v>0.66845588026469</v>
+        <v>0.823461819701243</v>
       </c>
       <c r="K85"/>
       <c r="L85" t="n">
-        <v>1163.54746721825</v>
+        <v>750.004552519516</v>
       </c>
       <c r="M85" t="n">
-        <v>1279.93754457639</v>
+        <v>792.229164965858</v>
       </c>
       <c r="N85"/>
       <c r="O85" t="n">
-        <v>0.0279240792112708</v>
+        <v>0.038345665678746</v>
       </c>
       <c r="P85" t="n">
-        <v>0.0244737045498222</v>
+        <v>0.03738176549344</v>
       </c>
       <c r="Q85"/>
       <c r="R85" t="s">
@@ -5559,31 +5559,31 @@
       </c>
       <c r="E86"/>
       <c r="F86" t="n">
-        <v>1357</v>
+        <v>21167</v>
       </c>
       <c r="G86" t="n">
-        <v>1572</v>
+        <v>23537</v>
       </c>
       <c r="H86"/>
       <c r="I86" t="n">
-        <v>0.457056247894914</v>
+        <v>0.690265775313876</v>
       </c>
       <c r="J86" t="n">
-        <v>0.450817321479782</v>
+        <v>0.66845588026469</v>
       </c>
       <c r="K86"/>
       <c r="L86" t="n">
-        <v>311.283815516483</v>
+        <v>1163.54746721825</v>
       </c>
       <c r="M86" t="n">
-        <v>352.713472027934</v>
+        <v>1279.93754457639</v>
       </c>
       <c r="N86"/>
       <c r="O86" t="n">
-        <v>0.0953887538322556</v>
+        <v>0.0279240792112708</v>
       </c>
       <c r="P86" t="n">
-        <v>0.0883245661055159</v>
+        <v>0.0244737045498222</v>
       </c>
       <c r="Q86"/>
       <c r="R86" t="s">
@@ -6538,38 +6538,38 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>49</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
-        <v>148166</v>
+        <v>24449</v>
       </c>
       <c r="G11" t="n">
-        <v>160972</v>
+        <v>27279</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>0.658925553677844</v>
+        <v>0.524938271604938</v>
       </c>
       <c r="J11" t="n">
-        <v>0.652654454634653</v>
+        <v>0.510919238837279</v>
       </c>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>3823.40580761185</v>
+        <v>1388.41712894666</v>
       </c>
       <c r="M11" t="n">
-        <v>4052.37436437964</v>
+        <v>1612.84964356105</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.0114449632085157</v>
+        <v>0.023210589240122</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0109241531840316</v>
+        <v>0.0227267115378057</v>
       </c>
       <c r="Q11"/>
       <c r="R11" t="s">
@@ -6590,38 +6590,38 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>49</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
-        <v>24449</v>
+        <v>148166</v>
       </c>
       <c r="G12" t="n">
-        <v>27279</v>
+        <v>160972</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="n">
-        <v>0.524938271604938</v>
+        <v>0.658925553677844</v>
       </c>
       <c r="J12" t="n">
-        <v>0.510919238837279</v>
+        <v>0.652654454634653</v>
       </c>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>1388.41712894666</v>
+        <v>3823.40580761185</v>
       </c>
       <c r="M12" t="n">
-        <v>1612.84964356105</v>
+        <v>4052.37436437964</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>0.023210589240122</v>
+        <v>0.0114449632085157</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0227267115378057</v>
+        <v>0.0109241531840316</v>
       </c>
       <c r="Q12"/>
       <c r="R12" t="s">
@@ -7500,38 +7500,38 @@
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
         <v>49</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="n">
-        <v>71991</v>
+        <v>12322</v>
       </c>
       <c r="G27" t="n">
-        <v>77005</v>
+        <v>13869</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="n">
-        <v>0.618086439892165</v>
+        <v>0.490623133585507</v>
       </c>
       <c r="J27" t="n">
-        <v>0.616636904523579</v>
+        <v>0.482148444289936</v>
       </c>
       <c r="K27"/>
       <c r="L27" t="n">
-        <v>2437.93659123833</v>
+        <v>953.507048505673</v>
       </c>
       <c r="M27" t="n">
-        <v>2604.7269407603</v>
+        <v>1075.61171351992</v>
       </c>
       <c r="N27"/>
       <c r="O27" t="n">
-        <v>0.0155289782052378</v>
+        <v>0.032759640243789</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0143730173722226</v>
+        <v>0.0340526388540633</v>
       </c>
       <c r="Q27"/>
       <c r="R27" t="s">
@@ -7552,38 +7552,38 @@
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
         <v>49</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="n">
-        <v>12322</v>
+        <v>71991</v>
       </c>
       <c r="G28" t="n">
-        <v>13869</v>
+        <v>77005</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="n">
-        <v>0.490623133585507</v>
+        <v>0.618086439892165</v>
       </c>
       <c r="J28" t="n">
-        <v>0.482148444289936</v>
+        <v>0.616636904523579</v>
       </c>
       <c r="K28"/>
       <c r="L28" t="n">
-        <v>953.507048505673</v>
+        <v>2437.93659123833</v>
       </c>
       <c r="M28" t="n">
-        <v>1075.61171351992</v>
+        <v>2604.7269407603</v>
       </c>
       <c r="N28"/>
       <c r="O28" t="n">
-        <v>0.032759640243789</v>
+        <v>0.0155289782052378</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0340526388540633</v>
+        <v>0.0143730173722226</v>
       </c>
       <c r="Q28"/>
       <c r="R28" t="s">
@@ -8462,38 +8462,38 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
         <v>49</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="n">
-        <v>11483</v>
+        <v>1152</v>
       </c>
       <c r="G43" t="n">
-        <v>12622</v>
+        <v>1275</v>
       </c>
       <c r="H43"/>
       <c r="I43" t="n">
-        <v>0.715362571642163</v>
+        <v>0.450175849941383</v>
       </c>
       <c r="J43" t="n">
-        <v>0.702275635675736</v>
+        <v>0.452127659574468</v>
       </c>
       <c r="K43"/>
       <c r="L43" t="n">
-        <v>864.874296400928</v>
+        <v>247.323165142794</v>
       </c>
       <c r="M43" t="n">
-        <v>851.158194769045</v>
+        <v>258.711749750084</v>
       </c>
       <c r="N43"/>
       <c r="O43" t="n">
-        <v>0.0332561989326599</v>
+        <v>0.0868024062370842</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0311987614724177</v>
+        <v>0.0864185452800276</v>
       </c>
       <c r="Q43"/>
       <c r="R43" t="s">
@@ -8514,38 +8514,38 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
         <v>49</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="n">
-        <v>1152</v>
+        <v>11483</v>
       </c>
       <c r="G44" t="n">
-        <v>1275</v>
+        <v>12622</v>
       </c>
       <c r="H44"/>
       <c r="I44" t="n">
-        <v>0.450175849941383</v>
+        <v>0.715362571642163</v>
       </c>
       <c r="J44" t="n">
-        <v>0.452127659574468</v>
+        <v>0.702275635675736</v>
       </c>
       <c r="K44"/>
       <c r="L44" t="n">
-        <v>247.323165142794</v>
+        <v>864.874296400928</v>
       </c>
       <c r="M44" t="n">
-        <v>258.711749750084</v>
+        <v>851.158194769045</v>
       </c>
       <c r="N44"/>
       <c r="O44" t="n">
-        <v>0.0868024062370842</v>
+        <v>0.0332561989326599</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0864185452800276</v>
+        <v>0.0311987614724177</v>
       </c>
       <c r="Q44"/>
       <c r="R44" t="s">
@@ -9424,38 +9424,38 @@
         <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D59" t="s">
         <v>49</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="n">
-        <v>36172</v>
+        <v>7186</v>
       </c>
       <c r="G59" t="n">
-        <v>39925</v>
+        <v>7949</v>
       </c>
       <c r="H59"/>
       <c r="I59" t="n">
-        <v>0.686245494213622</v>
+        <v>0.579656368476244</v>
       </c>
       <c r="J59" t="n">
-        <v>0.676626105819747</v>
+        <v>0.546698762035763</v>
       </c>
       <c r="K59"/>
       <c r="L59" t="n">
-        <v>1508.09761079522</v>
+        <v>835.296920139779</v>
       </c>
       <c r="M59" t="n">
-        <v>1595.23038503221</v>
+        <v>848.412398016878</v>
       </c>
       <c r="N59"/>
       <c r="O59" t="n">
-        <v>0.0214697141296225</v>
+        <v>0.0490734738141149</v>
       </c>
       <c r="P59" t="n">
-        <v>0.0204485645550855</v>
+        <v>0.0441927448472436</v>
       </c>
       <c r="Q59"/>
       <c r="R59" t="s">
@@ -9476,38 +9476,38 @@
         <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D60" t="s">
         <v>49</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="n">
-        <v>7186</v>
+        <v>36172</v>
       </c>
       <c r="G60" t="n">
-        <v>7949</v>
+        <v>39925</v>
       </c>
       <c r="H60"/>
       <c r="I60" t="n">
-        <v>0.579656368476244</v>
+        <v>0.686245494213622</v>
       </c>
       <c r="J60" t="n">
-        <v>0.546698762035763</v>
+        <v>0.676626105819747</v>
       </c>
       <c r="K60"/>
       <c r="L60" t="n">
-        <v>835.296920139779</v>
+        <v>1508.09761079522</v>
       </c>
       <c r="M60" t="n">
-        <v>848.412398016878</v>
+        <v>1595.23038503221</v>
       </c>
       <c r="N60"/>
       <c r="O60" t="n">
-        <v>0.0490734738141149</v>
+        <v>0.0214697141296225</v>
       </c>
       <c r="P60" t="n">
-        <v>0.0441927448472436</v>
+        <v>0.0204485645550855</v>
       </c>
       <c r="Q60"/>
       <c r="R60" t="s">
@@ -10386,38 +10386,38 @@
         <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D75" t="s">
         <v>49</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="n">
-        <v>28520</v>
+        <v>3789</v>
       </c>
       <c r="G75" t="n">
-        <v>31420</v>
+        <v>4186</v>
       </c>
       <c r="H75"/>
       <c r="I75" t="n">
-        <v>0.719765798505956</v>
+        <v>0.582564575645756</v>
       </c>
       <c r="J75" t="n">
-        <v>0.701589853519114</v>
+        <v>0.57602862254025</v>
       </c>
       <c r="K75"/>
       <c r="L75" t="n">
-        <v>1491.74020347043</v>
+        <v>505.071393024046</v>
       </c>
       <c r="M75" t="n">
-        <v>1686.19645568102</v>
+        <v>561.655975752729</v>
       </c>
       <c r="N75"/>
       <c r="O75" t="n">
-        <v>0.0246477713919709</v>
+        <v>0.0636070345002761</v>
       </c>
       <c r="P75" t="n">
-        <v>0.0219708181945032</v>
+        <v>0.0620669383785101</v>
       </c>
       <c r="Q75"/>
       <c r="R75" t="s">
@@ -10438,38 +10438,38 @@
         <v>48</v>
       </c>
       <c r="C76" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D76" t="s">
         <v>49</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="n">
-        <v>3789</v>
+        <v>28520</v>
       </c>
       <c r="G76" t="n">
-        <v>4186</v>
+        <v>31420</v>
       </c>
       <c r="H76"/>
       <c r="I76" t="n">
-        <v>0.582564575645756</v>
+        <v>0.719765798505956</v>
       </c>
       <c r="J76" t="n">
-        <v>0.57602862254025</v>
+        <v>0.701589853519114</v>
       </c>
       <c r="K76"/>
       <c r="L76" t="n">
-        <v>505.071393024046</v>
+        <v>1491.74020347043</v>
       </c>
       <c r="M76" t="n">
-        <v>561.655975752729</v>
+        <v>1686.19645568102</v>
       </c>
       <c r="N76"/>
       <c r="O76" t="n">
-        <v>0.0636070345002761</v>
+        <v>0.0246477713919709</v>
       </c>
       <c r="P76" t="n">
-        <v>0.0620669383785101</v>
+        <v>0.0219708181945032</v>
       </c>
       <c r="Q76"/>
       <c r="R76" t="s">
